--- a/(20221107) 新進企劃招募試題_無經驗_回答.xlsx
+++ b/(20221107) 新進企劃招募試題_無經驗_回答.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26B569-E01C-4058-ACEF-793805E660CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06847E2-B526-4C1C-AD5B-7066DF9E5EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2550" windowWidth="19035" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="試題1" sheetId="7" r:id="rId1"/>
@@ -591,10 +591,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在沒抽到SSR的情況下可能會卡幾天的關卡。想要完整體驗角色強度上消耗很多時間</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">b、 </t>
     </r>
@@ -1041,6 +1037,10 @@
   </si>
   <si>
     <t>在戰土要活的情況且在T=9時德要死A要181-200，且B要48-53。在德要活時A要161-180，且B要47-43</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在沒抽到SSR的情況下可能會卡幾天的關卡跟現有的SR和R卡強度不足和派遣的資源點沒有指定的角色而沒辦法拿。想要完整體驗角色強度上消耗很多時間</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1607,12 +1607,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,27 +1622,27 @@
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1657,7 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1692,32 +1692,32 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1820,17 +1820,17 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="8" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1985,40 +1985,40 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="4:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="4:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="4:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="4:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="4:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
